--- a/学校选择.xlsx
+++ b/学校选择.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\uv_code_lib\spyder_to_get_number\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github_code_lib\spyder_to_get_number\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A28B457-A8B8-4C18-8F66-45772EDF5394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E908486-493A-4C72-8FB2-E1E5EB1F9C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="4020" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>学校名称</t>
   </si>
@@ -51,13 +51,277 @@
   </si>
   <si>
     <t>铁门关职业技术学院</t>
+  </si>
+  <si>
+    <t>湘潭科技职业学院</t>
+  </si>
+  <si>
+    <t>怀化工商职业技术学院</t>
+  </si>
+  <si>
+    <t>衡阳幼儿师范高等专科学校</t>
+  </si>
+  <si>
+    <t>湖南民族职业学院</t>
+  </si>
+  <si>
+    <t>湘中幼儿师范高等专科学校</t>
+  </si>
+  <si>
+    <t>湖南城建职业技术学院</t>
+  </si>
+  <si>
+    <t>益阳师范高等专科学校</t>
+  </si>
+  <si>
+    <t>湖南交通职业技术学院</t>
+  </si>
+  <si>
+    <t>永州师范高等专科学校</t>
+  </si>
+  <si>
+    <t>湖南工程职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南幼儿师范高等专科学校</t>
+  </si>
+  <si>
+    <t>长沙环境保护职业技术学院</t>
+  </si>
+  <si>
+    <t>岳阳职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南科技职业学院</t>
+  </si>
+  <si>
+    <t>娄底幼儿师范高等专科学校</t>
+  </si>
+  <si>
+    <t>怀化师范高等专科学校</t>
+  </si>
+  <si>
+    <t>湖南外贸职业学院</t>
+  </si>
+  <si>
+    <t>湖南商务职业技术学院</t>
+  </si>
+  <si>
+    <t>张家界航空工业职业技术学院</t>
+  </si>
+  <si>
+    <t>长沙民政职业技术学院</t>
+  </si>
+  <si>
+    <t>株洲师范高等专科学校</t>
+  </si>
+  <si>
+    <t>湖南信息职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南生物机电职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南财经工业职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南工艺美术职业学院</t>
+  </si>
+  <si>
+    <t>湖南安全技术职业学院</t>
+  </si>
+  <si>
+    <t>长沙幼儿师范高等专科学校</t>
+  </si>
+  <si>
+    <t>湖南铁路科技职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南工业职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南环境生物职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南化工职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南机电职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南铁道职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南汽车工程职业大学</t>
+  </si>
+  <si>
+    <t>郴州职业技术学院</t>
+  </si>
+  <si>
+    <t>湘南幼儿师范高等专科学校</t>
+  </si>
+  <si>
+    <t>湖南高速铁路职业技术学院</t>
+  </si>
+  <si>
+    <t>常德职业技术学院</t>
+  </si>
+  <si>
+    <t>湘西民族职业技术学院</t>
+  </si>
+  <si>
+    <t>怀化职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南九嶷职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南体育职业学院</t>
+  </si>
+  <si>
+    <t>常德科技职业技术学院</t>
+  </si>
+  <si>
+    <t>永州职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南邮电职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南理工职业技术学院</t>
+  </si>
+  <si>
+    <t>益阳职业技术学院</t>
+  </si>
+  <si>
+    <t>长沙商贸旅游职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南艺术职业学院</t>
+  </si>
+  <si>
+    <t>湖南现代物流职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南劳动人事职业学院</t>
+  </si>
+  <si>
+    <t>湖南石油化工职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南有色金属职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南水利水电职业技术学院</t>
+  </si>
+  <si>
+    <t>湘潭医卫职业技术学院</t>
+  </si>
+  <si>
+    <t>娄底职业技术学院</t>
+  </si>
+  <si>
+    <t>邵阳职业技术学院</t>
+  </si>
+  <si>
+    <t>邵阳工业职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南食品药品职业学院</t>
+  </si>
+  <si>
+    <t>长沙职业技术学院</t>
+  </si>
+  <si>
+    <t>益阳医学高等专科学校</t>
+  </si>
+  <si>
+    <t>湖南电气职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南中医药高等专科学校</t>
+  </si>
+  <si>
+    <t>湖南国防工业职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南网络工程职业学院</t>
+  </si>
+  <si>
+    <t>湖南司法警官职业学院</t>
+  </si>
+  <si>
+    <t>湖南大众传媒职业技术学院</t>
+  </si>
+  <si>
+    <t>长沙卫生职业学院</t>
+  </si>
+  <si>
+    <t>长沙航空职业技术学院</t>
+  </si>
+  <si>
+    <t>长沙电力职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南吉利汽车职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南都市职业学院</t>
+  </si>
+  <si>
+    <t>岳阳现代服务职业学院</t>
+  </si>
+  <si>
+    <t>长沙文创艺术职业学院</t>
+  </si>
+  <si>
+    <t>衡阳理工职业学院</t>
+  </si>
+  <si>
+    <t>长沙科技职业学院</t>
+  </si>
+  <si>
+    <t>湖南三一工业职业技术学院</t>
+  </si>
+  <si>
+    <t>湖南外国语职业学院</t>
+  </si>
+  <si>
+    <t>湖南软件职业技术大学</t>
+  </si>
+  <si>
+    <t>长沙医药健康职业学院</t>
+  </si>
+  <si>
+    <t>长沙南方职业学院</t>
+  </si>
+  <si>
+    <t>衡阳科技职业学院</t>
+  </si>
+  <si>
+    <t>湖南工商职业学院</t>
+  </si>
+  <si>
+    <t>湖南电子科技职业学院</t>
+  </si>
+  <si>
+    <t>长沙轨道交通职业学院</t>
+  </si>
+  <si>
+    <t>潇湘职业学院</t>
+  </si>
+  <si>
+    <t>湖南高尔夫旅游职业学院</t>
+  </si>
+  <si>
+    <t>郴州思科职业学院</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,13 +336,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,8 +370,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -375,37 +654,477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
